--- a/CatFightJS/HTMLElement Object Elements.xlsx
+++ b/CatFightJS/HTMLElement Object Elements.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="object" sheetId="1" r:id="rId1"/>
+    <sheet name="object.attributes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="397">
   <si>
     <t>Row</t>
   </si>
@@ -1158,14 +1159,79 @@
   </si>
   <si>
     <t>function dispatchEvent() { [native code] }</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>object = [[object NamedNodeMap]]</t>
+  </si>
+  <si>
+    <t>typeOf object = [object]</t>
+  </si>
+  <si>
+    <t>object.length = [6]</t>
+  </si>
+  <si>
+    <t>[object Attr]</t>
+  </si>
+  <si>
+    <t>getNamedItem</t>
+  </si>
+  <si>
+    <t>function getNamedItem() { [native code] }</t>
+  </si>
+  <si>
+    <t>setNamedItem</t>
+  </si>
+  <si>
+    <t>function setNamedItem() { [native code] }</t>
+  </si>
+  <si>
+    <t>removeNamedItem</t>
+  </si>
+  <si>
+    <t>function removeNamedItem() { [native code] }</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>function item() { [native code] }</t>
+  </si>
+  <si>
+    <t>getNamedItemNS</t>
+  </si>
+  <si>
+    <t>function getNamedItemNS() { [native code] }</t>
+  </si>
+  <si>
+    <t>setNamedItemNS</t>
+  </si>
+  <si>
+    <t>function setNamedItemNS() { [native code] }</t>
+  </si>
+  <si>
+    <t>removeNamedItemNS</t>
+  </si>
+  <si>
+    <t>function removeNamedItemNS() { [native code] }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1193,13 +1259,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,7 +1296,29 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D274" totalsRowShown="0">
-  <autoFilter ref="A1:D274"/>
+  <autoFilter ref="A1:D274">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="object"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="[object CSS2Properties]"/>
+        <filter val="[object DOMStringMap]"/>
+        <filter val="[object HTMLBodyElement]"/>
+        <filter val="[object HTMLCollection]"/>
+        <filter val="[object HTMLDivElement]"/>
+        <filter val="[object HTMLDocument]"/>
+        <filter val="[object HTMLTableElement]"/>
+        <filter val="[object NamedNodeMap]"/>
+        <filter val="[object NodeList]"/>
+        <filter val="[object Text]"/>
+        <filter val="[object ValidityState]"/>
+        <filter val="characters"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:D274">
     <sortCondition ref="C1:C274"/>
   </sortState>
@@ -1503,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>34</v>
       </c>
@@ -1540,7 +1634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>35</v>
       </c>
@@ -1551,7 +1645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>270</v>
       </c>
@@ -1565,7 +1659,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>185</v>
       </c>
@@ -1579,7 +1673,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1590,7 +1684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>182</v>
       </c>
@@ -1604,7 +1698,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>189</v>
       </c>
@@ -1618,7 +1712,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>226</v>
       </c>
@@ -1632,7 +1726,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -1643,7 +1737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>213</v>
       </c>
@@ -1657,7 +1751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>178</v>
       </c>
@@ -1671,7 +1765,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>253</v>
       </c>
@@ -1699,7 +1793,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>240</v>
       </c>
@@ -1713,7 +1807,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>184</v>
       </c>
@@ -1727,7 +1821,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28</v>
       </c>
@@ -1741,7 +1835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -1752,7 +1846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>255</v>
       </c>
@@ -1766,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1780,7 +1874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>222</v>
       </c>
@@ -1836,7 +1930,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>196</v>
       </c>
@@ -1850,7 +1944,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1864,7 +1958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>207</v>
       </c>
@@ -1878,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>205</v>
       </c>
@@ -1892,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>204</v>
       </c>
@@ -1906,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>206</v>
       </c>
@@ -1920,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>230</v>
       </c>
@@ -1934,7 +2028,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>150</v>
       </c>
@@ -1948,7 +2042,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18</v>
       </c>
@@ -1959,7 +2053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>23</v>
       </c>
@@ -1970,7 +2064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24</v>
       </c>
@@ -1981,7 +2075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>259</v>
       </c>
@@ -1995,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>233</v>
       </c>
@@ -2009,7 +2103,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>234</v>
       </c>
@@ -2023,7 +2117,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -2037,7 +2131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2051,7 +2145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -2065,7 +2159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2093,7 +2187,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19</v>
       </c>
@@ -2107,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>31</v>
       </c>
@@ -2118,7 +2212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>272</v>
       </c>
@@ -2132,7 +2226,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>262</v>
       </c>
@@ -2146,7 +2240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>260</v>
       </c>
@@ -2160,7 +2254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>268</v>
       </c>
@@ -2174,7 +2268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>267</v>
       </c>
@@ -2188,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>264</v>
       </c>
@@ -2202,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>266</v>
       </c>
@@ -2216,7 +2310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>269</v>
       </c>
@@ -2230,7 +2324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>265</v>
       </c>
@@ -2244,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>261</v>
       </c>
@@ -2258,7 +2352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>36</v>
       </c>
@@ -2272,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>252</v>
       </c>
@@ -2286,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>257</v>
       </c>
@@ -2300,7 +2394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>256</v>
       </c>
@@ -2328,7 +2422,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>220</v>
       </c>
@@ -2342,7 +2436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>27</v>
       </c>
@@ -2356,7 +2450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8</v>
       </c>
@@ -2370,7 +2464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>183</v>
       </c>
@@ -2384,7 +2478,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>140</v>
       </c>
@@ -2398,7 +2492,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>139</v>
       </c>
@@ -2412,7 +2506,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>164</v>
       </c>
@@ -2426,7 +2520,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>167</v>
       </c>
@@ -2440,7 +2534,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>141</v>
       </c>
@@ -2454,7 +2548,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>170</v>
       </c>
@@ -2468,7 +2562,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>169</v>
       </c>
@@ -2482,7 +2576,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>155</v>
       </c>
@@ -2496,7 +2590,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>153</v>
       </c>
@@ -2510,7 +2604,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>154</v>
       </c>
@@ -2524,7 +2618,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>223</v>
       </c>
@@ -2538,7 +2632,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2552,7 +2646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>147</v>
       </c>
@@ -2566,7 +2660,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>148</v>
       </c>
@@ -2580,7 +2674,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>149</v>
       </c>
@@ -2594,7 +2688,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>224</v>
       </c>
@@ -2608,7 +2702,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>161</v>
       </c>
@@ -2622,7 +2716,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10</v>
       </c>
@@ -2636,7 +2730,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>33</v>
       </c>
@@ -2650,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20</v>
       </c>
@@ -2664,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>195</v>
       </c>
@@ -2678,7 +2772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>210</v>
       </c>
@@ -2689,7 +2783,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>32</v>
       </c>
@@ -2700,7 +2794,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>156</v>
       </c>
@@ -2714,7 +2808,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>175</v>
       </c>
@@ -2728,7 +2822,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>157</v>
       </c>
@@ -2742,7 +2836,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>225</v>
       </c>
@@ -2756,7 +2850,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>241</v>
       </c>
@@ -2770,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>38</v>
       </c>
@@ -2784,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>237</v>
       </c>
@@ -2798,7 +2892,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>232</v>
       </c>
@@ -2812,7 +2906,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>231</v>
       </c>
@@ -2826,7 +2920,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>30</v>
       </c>
@@ -2851,7 +2945,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>221</v>
       </c>
@@ -2865,7 +2959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>193</v>
       </c>
@@ -2879,7 +2973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>236</v>
       </c>
@@ -2893,7 +2987,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>235</v>
       </c>
@@ -2907,7 +3001,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>151</v>
       </c>
@@ -2921,7 +3015,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>158</v>
       </c>
@@ -2935,7 +3029,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>180</v>
       </c>
@@ -2949,7 +3043,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6</v>
       </c>
@@ -2960,7 +3054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>191</v>
       </c>
@@ -3002,7 +3096,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>239</v>
       </c>
@@ -3016,7 +3110,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>238</v>
       </c>
@@ -3030,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>250</v>
       </c>
@@ -3044,7 +3138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>40</v>
       </c>
@@ -3055,7 +3149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>229</v>
       </c>
@@ -3069,7 +3163,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>263</v>
       </c>
@@ -3083,7 +3177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>45</v>
       </c>
@@ -3097,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>43</v>
       </c>
@@ -3111,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>41</v>
       </c>
@@ -3125,7 +3219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>42</v>
       </c>
@@ -3139,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>44</v>
       </c>
@@ -3153,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>50</v>
       </c>
@@ -3167,7 +3261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>124</v>
       </c>
@@ -3181,7 +3275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>125</v>
       </c>
@@ -3195,7 +3289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>126</v>
       </c>
@@ -3209,7 +3303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>127</v>
       </c>
@@ -3223,7 +3317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>53</v>
       </c>
@@ -3237,7 +3331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>54</v>
       </c>
@@ -3251,7 +3345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>51</v>
       </c>
@@ -3265,7 +3359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>55</v>
       </c>
@@ -3279,7 +3373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>56</v>
       </c>
@@ -3293,7 +3387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>57</v>
       </c>
@@ -3307,7 +3401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>58</v>
       </c>
@@ -3321,7 +3415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>59</v>
       </c>
@@ -3335,7 +3429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>60</v>
       </c>
@@ -3349,7 +3443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>46</v>
       </c>
@@ -3363,7 +3457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>61</v>
       </c>
@@ -3377,7 +3471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>47</v>
       </c>
@@ -3391,7 +3485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>62</v>
       </c>
@@ -3405,7 +3499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>63</v>
       </c>
@@ -3419,7 +3513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>64</v>
       </c>
@@ -3433,7 +3527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>65</v>
       </c>
@@ -3447,7 +3541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>66</v>
       </c>
@@ -3461,7 +3555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>67</v>
       </c>
@@ -3475,7 +3569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>68</v>
       </c>
@@ -3489,7 +3583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>69</v>
       </c>
@@ -3503,7 +3597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>70</v>
       </c>
@@ -3517,7 +3611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>71</v>
       </c>
@@ -3531,7 +3625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>72</v>
       </c>
@@ -3545,7 +3639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>73</v>
       </c>
@@ -3559,7 +3653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>138</v>
       </c>
@@ -3573,7 +3667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>52</v>
       </c>
@@ -3587,7 +3681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>74</v>
       </c>
@@ -3601,7 +3695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>215</v>
       </c>
@@ -3615,7 +3709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>216</v>
       </c>
@@ -3629,7 +3723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>120</v>
       </c>
@@ -3643,7 +3737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>75</v>
       </c>
@@ -3657,7 +3751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>76</v>
       </c>
@@ -3671,7 +3765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>77</v>
       </c>
@@ -3685,7 +3779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>78</v>
       </c>
@@ -3699,7 +3793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>79</v>
       </c>
@@ -3713,7 +3807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>80</v>
       </c>
@@ -3727,7 +3821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>81</v>
       </c>
@@ -3741,7 +3835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>82</v>
       </c>
@@ -3755,7 +3849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>83</v>
       </c>
@@ -3769,7 +3863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>84</v>
       </c>
@@ -3783,7 +3877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>121</v>
       </c>
@@ -3797,7 +3891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>85</v>
       </c>
@@ -3811,7 +3905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>86</v>
       </c>
@@ -3825,7 +3919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>87</v>
       </c>
@@ -3839,7 +3933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>88</v>
       </c>
@@ -3853,7 +3947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>89</v>
       </c>
@@ -3867,7 +3961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>90</v>
       </c>
@@ -3881,7 +3975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>91</v>
       </c>
@@ -3895,7 +3989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>122</v>
       </c>
@@ -3909,7 +4003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>123</v>
       </c>
@@ -3923,7 +4017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>48</v>
       </c>
@@ -3937,7 +4031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>93</v>
       </c>
@@ -3951,7 +4045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>94</v>
       </c>
@@ -3965,7 +4059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>95</v>
       </c>
@@ -3979,7 +4073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>112</v>
       </c>
@@ -3993,7 +4087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>113</v>
       </c>
@@ -4007,7 +4101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>118</v>
       </c>
@@ -4021,7 +4115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>119</v>
       </c>
@@ -4035,7 +4129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>115</v>
       </c>
@@ -4049,7 +4143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>116</v>
       </c>
@@ -4063,7 +4157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>117</v>
       </c>
@@ -4077,7 +4171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>114</v>
       </c>
@@ -4091,7 +4185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>96</v>
       </c>
@@ -4105,7 +4199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>97</v>
       </c>
@@ -4119,7 +4213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>98</v>
       </c>
@@ -4133,7 +4227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>99</v>
       </c>
@@ -4147,7 +4241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>100</v>
       </c>
@@ -4161,7 +4255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>101</v>
       </c>
@@ -4175,7 +4269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>102</v>
       </c>
@@ -4189,7 +4283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>103</v>
       </c>
@@ -4203,7 +4297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>110</v>
       </c>
@@ -4217,7 +4311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>104</v>
       </c>
@@ -4231,7 +4325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>105</v>
       </c>
@@ -4245,7 +4339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>106</v>
       </c>
@@ -4259,7 +4353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>107</v>
       </c>
@@ -4273,7 +4367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>111</v>
       </c>
@@ -4287,7 +4381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>128</v>
       </c>
@@ -4301,7 +4395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>129</v>
       </c>
@@ -4315,7 +4409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>130</v>
       </c>
@@ -4329,7 +4423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>131</v>
       </c>
@@ -4343,7 +4437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>108</v>
       </c>
@@ -4357,7 +4451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>109</v>
       </c>
@@ -4371,7 +4465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>132</v>
       </c>
@@ -4385,7 +4479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>133</v>
       </c>
@@ -4399,7 +4493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>134</v>
       </c>
@@ -4413,7 +4507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>135</v>
       </c>
@@ -4427,7 +4521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>92</v>
       </c>
@@ -4441,7 +4535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -4505,7 +4599,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>192</v>
       </c>
@@ -4519,7 +4613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>188</v>
       </c>
@@ -4561,7 +4655,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>258</v>
       </c>
@@ -4575,7 +4669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>176</v>
       </c>
@@ -4589,7 +4683,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>177</v>
       </c>
@@ -4603,7 +4697,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>163</v>
       </c>
@@ -4617,7 +4711,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>160</v>
       </c>
@@ -4631,7 +4725,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>187</v>
       </c>
@@ -4645,7 +4739,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>145</v>
       </c>
@@ -4659,7 +4753,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>166</v>
       </c>
@@ -4673,7 +4767,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>146</v>
       </c>
@@ -4687,7 +4781,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>228</v>
       </c>
@@ -4701,7 +4795,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>271</v>
       </c>
@@ -4715,7 +4809,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>227</v>
       </c>
@@ -4729,7 +4823,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>190</v>
       </c>
@@ -4743,7 +4837,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>186</v>
       </c>
@@ -4757,7 +4851,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -4771,7 +4865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>179</v>
       </c>
@@ -4785,7 +4879,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>181</v>
       </c>
@@ -4799,7 +4893,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>172</v>
       </c>
@@ -4813,7 +4907,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>174</v>
       </c>
@@ -4827,7 +4921,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>203</v>
       </c>
@@ -4841,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>171</v>
       </c>
@@ -4855,7 +4949,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>201</v>
       </c>
@@ -4869,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>209</v>
       </c>
@@ -4883,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>173</v>
       </c>
@@ -4897,7 +4991,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>200</v>
       </c>
@@ -4911,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>208</v>
       </c>
@@ -4925,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>202</v>
       </c>
@@ -4939,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>143</v>
       </c>
@@ -4953,7 +5047,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>165</v>
       </c>
@@ -4967,7 +5061,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>168</v>
       </c>
@@ -4981,7 +5075,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>144</v>
       </c>
@@ -4995,7 +5089,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>162</v>
       </c>
@@ -5009,7 +5103,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2</v>
       </c>
@@ -5023,7 +5117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>159</v>
       </c>
@@ -5037,7 +5131,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>212</v>
       </c>
@@ -5051,7 +5145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>214</v>
       </c>
@@ -5062,7 +5156,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>39</v>
       </c>
@@ -5076,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>21</v>
       </c>
@@ -5101,7 +5195,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>137</v>
       </c>
@@ -5115,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>194</v>
       </c>
@@ -5129,7 +5223,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>254</v>
       </c>
@@ -5143,7 +5237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>251</v>
       </c>
@@ -5154,7 +5248,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>29</v>
       </c>
@@ -5165,7 +5259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>142</v>
       </c>
@@ -5179,7 +5273,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>5</v>
       </c>
@@ -5193,7 +5287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>7</v>
       </c>
@@ -5204,7 +5298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>15</v>
       </c>
@@ -5229,7 +5323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>22</v>
       </c>
@@ -5243,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>152</v>
       </c>
@@ -5257,7 +5351,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>9</v>
       </c>
@@ -5271,7 +5365,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>13</v>
       </c>
@@ -5291,4 +5385,252 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A67">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>